--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3746.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3746.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.244357749376588</v>
+        <v>0.9851366877555847</v>
       </c>
       <c r="B1">
-        <v>2.524392977720542</v>
+        <v>3.372609376907349</v>
       </c>
       <c r="C1">
-        <v>4.721547666342875</v>
+        <v>2.692147016525269</v>
       </c>
       <c r="D1">
-        <v>3.092794904649846</v>
+        <v>0.9088799357414246</v>
       </c>
       <c r="E1">
-        <v>1.157034060419829</v>
+        <v>0.7262665629386902</v>
       </c>
     </row>
   </sheetData>
